--- a/Equipo_personal_F.xlsx
+++ b/Equipo_personal_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DB076B-9EA1-442D-8D85-C1A931F20607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9A6C9-B169-4C52-8E8C-943D15E07861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">           Para el Equipo ferroviario, Locomotoras, incluye el equipo en servicio activo y fuera de servicio y no se incluyen las locomotoras eléctricas (Cholula-Puebla).</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -287,28 +284,30 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -569,197 +568,195 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>2023</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>30586</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>165</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>1209</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>12171</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>3562</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>2022</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7">
         <v>30310</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7">
         <v>148</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7">
         <v>1198</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7">
         <v>11678</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <v>3409</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>2021</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>30237</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>148</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>1999</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>11584</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>3334</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>2020</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9">
         <v>32034</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9">
         <v>148</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9">
         <v>1196</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9">
         <v>11782</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>3227</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>2019</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>31909</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>148</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <v>1217</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>12134</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>3462</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="19">
+      <c r="B11" s="14">
         <v>2018</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>32876</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>148</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>1278</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>12175</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="16">
         <v>3494</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="D12"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
       <c r="D16"/>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17"/>
-      <c r="G17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18"/>

--- a/Equipo_personal_F.xlsx
+++ b/Equipo_personal_F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9A6C9-B169-4C52-8E8C-943D15E07861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E30FD-B935-4AC3-BD19-59A879EDA038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -285,12 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,8 +302,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,21 +578,21 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
@@ -607,27 +610,27 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+      <c r="B6" s="18">
         <v>2023</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>30586</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>165</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1209</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>12171</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>3562</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="12">
+      <c r="B7" s="19">
         <v>2022</v>
       </c>
       <c r="C7">
@@ -642,32 +645,32 @@
       <c r="F7">
         <v>11678</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>3409</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="9">
+      <c r="B8" s="18">
         <v>2021</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>30237</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>148</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>1999</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>11584</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>3334</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="12">
+      <c r="B9" s="19">
         <v>2020</v>
       </c>
       <c r="C9">
@@ -682,52 +685,52 @@
       <c r="F9">
         <v>11782</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>3227</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
+      <c r="B10" s="18">
         <v>2019</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>31909</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>148</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>1217</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>12134</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>3462</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
+      <c r="B11" s="20">
         <v>2018</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>32876</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>148</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>1278</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>12175</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>3494</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="D12"/>

--- a/Equipo_personal_F.xlsx
+++ b/Equipo_personal_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E30FD-B935-4AC3-BD19-59A879EDA038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40412707-4136-4C83-8EEF-73636862E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">           Para el Equipo ferroviario, Locomotoras, incluye el equipo en servicio activo y fuera de servicio y no se incluyen las locomotoras eléctricas (Cholula-Puebla).</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,15 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,21 +578,21 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>2023</v>
       </c>
       <c r="C6" s="9">
@@ -630,7 +630,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>2022</v>
       </c>
       <c r="C7">
@@ -650,7 +650,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>2021</v>
       </c>
       <c r="C8" s="9">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>2020</v>
       </c>
       <c r="C9">
@@ -690,7 +690,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>2019</v>
       </c>
       <c r="C10" s="9">
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <v>2018</v>
       </c>
       <c r="C11" s="12">

--- a/Equipo_personal_F.xlsx
+++ b/Equipo_personal_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40412707-4136-4C83-8EEF-73636862E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843C88D-6CB3-4C04-BDD9-94FC3FE42B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -96,19 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
@@ -122,11 +109,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -263,41 +265,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,11 +285,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,234 +561,235 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+    <row r="3" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2023</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>30586</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>165</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>1209</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>12171</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>3562</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
         <v>2022</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>30310</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>148</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1198</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>11678</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <v>3409</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2021</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <v>30237</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>148</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>1999</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>11584</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="12">
         <v>3334</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2020</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>32034</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>148</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1196</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>11782</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>3227</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2019</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>31909</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>148</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>1217</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>12134</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>3462</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2018</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>32876</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="16">
         <v>148</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>1278</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>12175</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="17">
         <v>3494</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D17"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D23"/>
-    </row>
-    <row r="29" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="6"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="6"/>
-      <c r="E30" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D17" s="2"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="29" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F16:K22">
@@ -796,7 +800,7 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B4:B5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Equipo_personal_F.xlsx
+++ b/Equipo_personal_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843C88D-6CB3-4C04-BDD9-94FC3FE42B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D642FEA9-8C7B-4006-BBE9-0D544B20495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_20.2" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">           Para el Equipo ferroviario, Locomotoras, incluye el equipo en servicio activo y fuera de servicio y no se incluyen las locomotoras eléctricas (Cholula-Puebla).</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -276,18 +276,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,6 +301,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,13 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.8984375" style="2" bestFit="1" customWidth="1"/>
@@ -573,227 +573,247 @@
     <col min="8" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32349</v>
+      </c>
+      <c r="D6" s="2">
+        <v>278</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13687</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>2023</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="7">
         <v>30586</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="7">
         <v>165</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="7">
         <v>1209</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="7">
         <v>12171</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="8">
         <v>3562</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
         <v>2022</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>30310</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>148</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>1198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>11678</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="10">
         <v>3409</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>2021</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="7">
         <v>30237</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="7">
         <v>148</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="7">
         <v>1999</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="7">
         <v>11584</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="8">
         <v>3334</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
         <v>2020</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>32034</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>148</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>1196</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>11782</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="10">
         <v>3227</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>2019</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="7">
         <v>31909</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="7">
         <v>148</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="7">
         <v>1217</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="7">
         <v>12134</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="8">
         <v>3462</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>2018</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C12" s="12">
         <v>32876</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="12">
         <v>148</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="12">
         <v>1278</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="12">
         <v>12175</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="13">
         <v>3494</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D17" s="2"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
     </row>
-    <row r="29" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="4:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F16:K22">
-    <sortCondition descending="1" ref="F16:F22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F17:K23">
+    <sortCondition descending="1" ref="F17:F23"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="C4:E4"/>
